--- a/Reference files/Setup_data.xlsx
+++ b/Reference files/Setup_data.xlsx
@@ -5,17 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erica.Levine\Documents\GitHub\HSM-and-mapping\Data\SL_v1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erica.Levine\Documents\GitHub\HSM-and-mapping\Reference files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB871166-D9E4-42F4-B9DD-CFD8804F6610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6693C34-1AC1-4C95-B7CB-7B1FE2C55E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46908" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{ABA54846-BF8B-4CFF-808A-98E7C297F143}"/>
+    <workbookView xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="16440" xr2:uid="{ABA54846-BF8B-4CFF-808A-98E7C297F143}"/>
   </bookViews>
   <sheets>
-    <sheet name="Long_Names" sheetId="2" r:id="rId1"/>
-    <sheet name="Section_Order" sheetId="1" r:id="rId2"/>
-    <sheet name="Testing" sheetId="3" r:id="rId3"/>
+    <sheet name="Metadata" sheetId="5" r:id="rId1"/>
+    <sheet name="Long_Names" sheetId="2" r:id="rId2"/>
+    <sheet name="Section_Order" sheetId="1" r:id="rId3"/>
+    <sheet name="Parameter_Order" sheetId="4" r:id="rId4"/>
+    <sheet name="Testing" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="57">
   <si>
     <t>Site</t>
   </si>
@@ -58,18 +60,12 @@
     <t>CR</t>
   </si>
   <si>
-    <t>Test</t>
-  </si>
-  <si>
     <t>Designation</t>
   </si>
   <si>
     <t>LongName</t>
   </si>
   <si>
-    <t>TestingCode</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -104,14 +100,133 @@
   </si>
   <si>
     <t>Something isn't working.</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Oysters</t>
+  </si>
+  <si>
+    <t>Salinity</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Layer_name</t>
+  </si>
+  <si>
+    <t>Sheet Name</t>
+  </si>
+  <si>
+    <t>Column Name</t>
+  </si>
+  <si>
+    <t>Data Type</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Long_Names</t>
+  </si>
+  <si>
+    <t>Section_Order</t>
+  </si>
+  <si>
+    <t>Parameter_Order</t>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>Data type being described. Name is used to identify and sort for use.</t>
+  </si>
+  <si>
+    <t>Long name used for clarification in output</t>
+  </si>
+  <si>
+    <t>varchar(2)</t>
+  </si>
+  <si>
+    <t>Two-letter site code</t>
+  </si>
+  <si>
+    <t>varcahr(1)</t>
+  </si>
+  <si>
+    <t>One-letter section code. Must be unique within site area</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>Numerical order of prioirty with 1 being first/highest priority</t>
+  </si>
+  <si>
+    <t>File name of layer</t>
+  </si>
+  <si>
+    <t>Type of data</t>
+  </si>
+  <si>
+    <t>SL</t>
+  </si>
+  <si>
+    <t>St. Lucie Estuary</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Short code used for identification</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Seagrass</t>
+  </si>
+  <si>
+    <t>Needed</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>varchar91</t>
+  </si>
+  <si>
+    <t>Values Allowed:</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -139,13 +254,48 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -156,6 +306,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2290EAFA-E702-4013-855B-8287C2917115}" name="Table1" displayName="Table1" ref="A1:D7" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:D7" xr:uid="{2290EAFA-E702-4013-855B-8287C2917115}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{0F3EFAE7-C43F-43A4-98CD-33BD085FAA71}" name="Type"/>
+    <tableColumn id="2" xr3:uid="{41903F13-457D-4BE8-83A4-BBEA9A0794AA}" name="Designation"/>
+    <tableColumn id="3" xr3:uid="{384416CB-D67A-4909-BC20-6EA0EF33CA10}" name="LongName"/>
+    <tableColumn id="4" xr3:uid="{FEBE7F9A-A1E8-449C-8612-24B327BE1460}" name="Needed"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -474,93 +637,388 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A98269-D1F2-4AAA-B75F-45C7BEE80E81}">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49AF02D2-80D6-4FBF-8F69-14799DFC26B6}">
+  <dimension ref="A1:Z11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A98269-D1F2-4AAA-B75F-45C7BEE80E81}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D6" xr:uid="{F53B929E-5726-4F83-A1EB-4890C7F3A734}">
+      <formula1>"Metadata!$Z$3:$Z$4"</formula1>
+    </dataValidation>
+    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid entry" error="Value entered must either bu &quot;Y&quot; to indicate this name is needed or &quot;N&quot; to indicate it is not needed." sqref="D7" xr:uid="{C4ED4855-1BEE-40B8-BCB5-47A2ACB71899}">
+      <formula1>"Metadata!$Z$3:$Z$4"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid entry" error="Value entered must indicate Yes (Y/y) data is needed, or No (N/n) data is not needed. " xr:uid="{5FB444C6-0342-4440-9008-16AFF2292C2C}">
+          <x14:formula1>
+            <xm:f>Metadata!$Z$3:$Z$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404EDE7E-0283-496B-A219-853162C38F92}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
+        <v>46</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -568,33 +1026,36 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404EDE7E-0283-496B-A219-853162C38F92}">
-  <dimension ref="A1:C3"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EEC5A8C-2EDB-451C-AE63-50DA71E8941F}">
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
+      <c r="A1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -602,13 +1063,35 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C3">
         <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -616,7 +1099,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D1058D-E616-411E-871D-16CD52DEFA8F}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -628,7 +1111,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Reference files/Setup_data.xlsx
+++ b/Reference files/Setup_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erica.Levine\Documents\GitHub\HSM-and-mapping\Reference files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6693C34-1AC1-4C95-B7CB-7B1FE2C55E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1629C293-B647-4C33-A2EA-CD28AEBEDC9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="16440" xr2:uid="{ABA54846-BF8B-4CFF-808A-98E7C297F143}"/>
+    <workbookView xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="16440" activeTab="2" xr2:uid="{ABA54846-BF8B-4CFF-808A-98E7C297F143}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="5" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="62">
   <si>
     <t>Site</t>
   </si>
@@ -211,6 +211,21 @@
   </si>
   <si>
     <t>y</t>
+  </si>
+  <si>
+    <t>KML_Name</t>
+  </si>
+  <si>
+    <t>SL-Central</t>
+  </si>
+  <si>
+    <t>SL-Notth</t>
+  </si>
+  <si>
+    <t>SL-South</t>
+  </si>
+  <si>
+    <t>Testing</t>
   </si>
 </sst>
 </file>
@@ -640,7 +655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49AF02D2-80D6-4FBF-8F69-14799DFC26B6}">
   <dimension ref="A1:Z11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -960,13 +975,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404EDE7E-0283-496B-A219-853162C38F92}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -976,8 +991,11 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -987,8 +1005,11 @@
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -998,8 +1019,11 @@
       <c r="C3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>44</v>
       </c>
@@ -1009,8 +1033,11 @@
       <c r="C4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -1019,6 +1046,9 @@
       </c>
       <c r="C5" t="s">
         <v>49</v>
+      </c>
+      <c r="D5" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/Reference files/Setup_data.xlsx
+++ b/Reference files/Setup_data.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erica.Levine\Documents\GitHub\HSM-and-mapping\Reference files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1629C293-B647-4C33-A2EA-CD28AEBEDC9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9E6D3D-91C3-4F9F-A25E-6037971E51F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="16440" activeTab="2" xr2:uid="{ABA54846-BF8B-4CFF-808A-98E7C297F143}"/>
+    <workbookView xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="16440" xr2:uid="{ABA54846-BF8B-4CFF-808A-98E7C297F143}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="5" r:id="rId1"/>
     <sheet name="Long_Names" sheetId="2" r:id="rId2"/>
     <sheet name="Section_Order" sheetId="1" r:id="rId3"/>
     <sheet name="Parameter_Order" sheetId="4" r:id="rId4"/>
-    <sheet name="Testing" sheetId="3" r:id="rId5"/>
+    <sheet name="Parameter_Scoring" sheetId="6" r:id="rId5"/>
+    <sheet name="Testing" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="83">
   <si>
     <t>Site</t>
   </si>
@@ -201,9 +202,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>varchar91</t>
-  </si>
-  <si>
     <t>Values Allowed:</t>
   </si>
   <si>
@@ -226,13 +224,79 @@
   </si>
   <si>
     <t>Testing</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Oysters in Florida GSI layer. Source FWC</t>
+  </si>
+  <si>
+    <t>Decscription</t>
+  </si>
+  <si>
+    <t>Description of data layer including source of data.</t>
+  </si>
+  <si>
+    <t>Parameter_Scoring</t>
+  </si>
+  <si>
+    <t>Type of data. Should match name found in Parameter_Order sheet.</t>
+  </si>
+  <si>
+    <t>Name of column used for assigning scores.</t>
+  </si>
+  <si>
+    <t>Name or value used for assigning scores. If a name is used, the "Name" should match the character name used for polygons. If a value is used, the value should indicate the cut point for the score (i.e., upper or lower bounding value).</t>
+  </si>
+  <si>
+    <t>d.[dd]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number from 0 to 1 (inclusive) indicating scoring for value with 1 being high/better and 0 being low/worse. </t>
+  </si>
+  <si>
+    <t>OYSTER</t>
+  </si>
+  <si>
+    <t>Live</t>
+  </si>
+  <si>
+    <t>Mostly Live</t>
+  </si>
+  <si>
+    <t>Restored</t>
+  </si>
+  <si>
+    <t>50/50</t>
+  </si>
+  <si>
+    <t>Mostly Dead</t>
+  </si>
+  <si>
+    <t>Is_Used</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>Is the information being used in the model, Yes (Y) or (N)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is the data layer being used in the model, Yes (Y) or (N)? Update to "N" if not being used, do not delete from table. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,6 +308,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -269,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -287,11 +358,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -324,13 +453,53 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2290EAFA-E702-4013-855B-8287C2917115}" name="Table1" displayName="Table1" ref="A1:D7" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2290EAFA-E702-4013-855B-8287C2917115}" name="Table1" displayName="Table1" ref="A1:D7" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A1:D7" xr:uid="{2290EAFA-E702-4013-855B-8287C2917115}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{0F3EFAE7-C43F-43A4-98CD-33BD085FAA71}" name="Type"/>
     <tableColumn id="2" xr3:uid="{41903F13-457D-4BE8-83A4-BBEA9A0794AA}" name="Designation"/>
     <tableColumn id="3" xr3:uid="{384416CB-D67A-4909-BC20-6EA0EF33CA10}" name="LongName"/>
-    <tableColumn id="4" xr3:uid="{FEBE7F9A-A1E8-449C-8612-24B327BE1460}" name="Needed"/>
+    <tableColumn id="4" xr3:uid="{FEBE7F9A-A1E8-449C-8612-24B327BE1460}" name="Is_Used"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E2821D4A-29BF-4DC8-B339-8E2AA5FC96D3}" name="Table2" displayName="Table2" ref="A1:D5" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:D5" xr:uid="{E2821D4A-29BF-4DC8-B339-8E2AA5FC96D3}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{6698C1C8-6642-4681-845E-5BC43253DE59}" name="Site"/>
+    <tableColumn id="2" xr3:uid="{284BB4AC-9EFF-40DB-ABEC-145F6F552E3E}" name="Section"/>
+    <tableColumn id="3" xr3:uid="{61FE9CE5-2683-4FC2-910F-4B5AF26F5ADB}" name="Order"/>
+    <tableColumn id="4" xr3:uid="{1C217318-AA99-4F91-A4DA-8D682CED8769}" name="KML_Name"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6FA0BAA3-47DA-49C8-91CB-0A2E7355A2B5}" name="Table3" displayName="Table3" ref="A1:D5" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:D5" xr:uid="{6FA0BAA3-47DA-49C8-91CB-0A2E7355A2B5}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{5519B2E3-398D-4910-B2B3-9C35C0C36B8E}" name="Parameter"/>
+    <tableColumn id="2" xr3:uid="{89BFB1ED-5765-4484-8DD0-4EF9A48A6028}" name="Layer_name"/>
+    <tableColumn id="3" xr3:uid="{D9807E9C-4BAF-484F-93F6-BF0E9DEB2EC4}" name="Priority"/>
+    <tableColumn id="4" xr3:uid="{7C4466E1-8375-4529-8D01-8CEC01CDAA7D}" name="Decscription"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F24C184F-0B25-4CE5-8518-C520F9CC7EAD}" name="Table4" displayName="Table4" ref="A1:E8" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:E8" xr:uid="{F24C184F-0B25-4CE5-8518-C520F9CC7EAD}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{29810767-E8A8-4828-9056-1D2F10D55B05}" name="Parameter"/>
+    <tableColumn id="2" xr3:uid="{B9565D10-3D3D-47CA-9DF8-CCB53563CAE2}" name="Column Name"/>
+    <tableColumn id="3" xr3:uid="{084F224E-CB03-4C97-83C6-AF08525BCB0E}" name="Value"/>
+    <tableColumn id="4" xr3:uid="{056F6D16-7766-41DD-A515-E5F5651CB5D8}" name="Score"/>
+    <tableColumn id="5" xr3:uid="{07D2E72B-9FE4-4424-86CF-02DCDBBB2345}" name="Is_Used"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -653,16 +822,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49AF02D2-80D6-4FBF-8F69-14799DFC26B6}">
-  <dimension ref="A1:Z11"/>
+  <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="210.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
@@ -679,7 +848,7 @@
         <v>29</v>
       </c>
       <c r="Z1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
@@ -731,17 +900,17 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="5" t="s">
-        <v>51</v>
+      <c r="B5" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="Z5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
@@ -758,7 +927,7 @@
         <v>37</v>
       </c>
       <c r="Z6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
@@ -823,11 +992,86 @@
         <v>41</v>
       </c>
     </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A13:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -837,7 +1081,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A98269-D1F2-4AAA-B75F-45C7BEE80E81}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -858,7 +1104,7 @@
         <v>7</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -977,9 +1223,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404EDE7E-0283-496B-A219-853162C38F92}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
@@ -992,7 +1246,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1006,7 +1260,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1020,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1034,7 +1288,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1048,28 +1302,34 @@
         <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EEC5A8C-2EDB-451C-AE63-50DA71E8941F}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -1079,8 +1339,11 @@
       <c r="C1" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1090,8 +1353,11 @@
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -1102,7 +1368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1113,7 +1379,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -1126,10 +1392,172 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9692A888-97C1-44B2-9140-F9F050732970}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3">
+        <v>0.75</v>
+      </c>
+      <c r="E3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4">
+        <v>0.75</v>
+      </c>
+      <c r="E4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5">
+        <v>0.5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6">
+        <v>0.25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8">
+        <v>50</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D1058D-E616-411E-871D-16CD52DEFA8F}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/Reference files/Setup_data.xlsx
+++ b/Reference files/Setup_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erica.Levine\Documents\GitHub\HSM-and-mapping\Reference files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erica.Williams\Documents\GitHub\HSM-and-mapping\Reference files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9E6D3D-91C3-4F9F-A25E-6037971E51F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45D2532-A4BB-4D04-B308-6B06F08243B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="16440" xr2:uid="{ABA54846-BF8B-4CFF-808A-98E7C297F143}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{ABA54846-BF8B-4CFF-808A-98E7C297F143}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="5" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="85">
   <si>
     <t>Site</t>
   </si>
@@ -217,9 +217,6 @@
     <t>SL-Central</t>
   </si>
   <si>
-    <t>SL-Notth</t>
-  </si>
-  <si>
     <t>SL-South</t>
   </si>
   <si>
@@ -290,6 +287,15 @@
   </si>
   <si>
     <t xml:space="preserve">Is the data layer being used in the model, Yes (Y) or (N)? Update to "N" if not being used, do not delete from table. </t>
+  </si>
+  <si>
+    <t>Shellfish Harvest Areas</t>
+  </si>
+  <si>
+    <t>SL-North</t>
+  </si>
+  <si>
+    <t>InProgress</t>
   </si>
 </sst>
 </file>
@@ -340,7 +346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -355,12 +361,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -479,8 +484,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6FA0BAA3-47DA-49C8-91CB-0A2E7355A2B5}" name="Table3" displayName="Table3" ref="A1:D5" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:D5" xr:uid="{6FA0BAA3-47DA-49C8-91CB-0A2E7355A2B5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6FA0BAA3-47DA-49C8-91CB-0A2E7355A2B5}" name="Table3" displayName="Table3" ref="A1:D6" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:D6" xr:uid="{6FA0BAA3-47DA-49C8-91CB-0A2E7355A2B5}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{5519B2E3-398D-4910-B2B3-9C35C0C36B8E}" name="Parameter"/>
     <tableColumn id="2" xr3:uid="{89BFB1ED-5765-4484-8DD0-4EF9A48A6028}" name="Layer_name"/>
@@ -492,8 +497,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F24C184F-0B25-4CE5-8518-C520F9CC7EAD}" name="Table4" displayName="Table4" ref="A1:E8" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:E8" xr:uid="{F24C184F-0B25-4CE5-8518-C520F9CC7EAD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F24C184F-0B25-4CE5-8518-C520F9CC7EAD}" name="Table4" displayName="Table4" ref="A1:E12" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:E12" xr:uid="{F24C184F-0B25-4CE5-8518-C520F9CC7EAD}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{29810767-E8A8-4828-9056-1D2F10D55B05}" name="Parameter"/>
     <tableColumn id="2" xr3:uid="{B9565D10-3D3D-47CA-9DF8-CCB53563CAE2}" name="Column Name"/>
@@ -824,7 +829,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49AF02D2-80D6-4FBF-8F69-14799DFC26B6}">
   <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -852,7 +857,7 @@
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -869,7 +874,7 @@
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
@@ -884,7 +889,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
@@ -899,22 +904,22 @@
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7" t="s">
-        <v>78</v>
+      <c r="A5" s="7"/>
+      <c r="B5" t="s">
+        <v>77</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Z5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -931,7 +936,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="5" t="s">
         <v>1</v>
       </c>
@@ -943,7 +948,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="5" t="s">
         <v>2</v>
       </c>
@@ -955,7 +960,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -969,7 +974,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
+      <c r="A10" s="7"/>
       <c r="B10" s="5" t="s">
         <v>25</v>
       </c>
@@ -981,7 +986,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
+      <c r="A11" s="7"/>
       <c r="B11" s="5" t="s">
         <v>20</v>
       </c>
@@ -993,7 +998,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
+      <c r="A12" s="7"/>
       <c r="B12" s="5" t="s">
         <v>29</v>
       </c>
@@ -1001,69 +1006,69 @@
         <v>33</v>
       </c>
       <c r="D12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7" t="s">
-        <v>62</v>
+      <c r="A15" s="7"/>
+      <c r="B15" t="s">
+        <v>61</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="8" t="s">
+      <c r="D16" t="s">
         <v>70</v>
       </c>
-      <c r="D16" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7" t="s">
-        <v>78</v>
+      <c r="A17" s="7"/>
+      <c r="B17" t="s">
+        <v>77</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1082,7 +1087,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1104,7 +1109,7 @@
         <v>7</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1224,7 +1229,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1274,7 +1279,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1288,7 +1293,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1302,7 +1307,7 @@
         <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1315,10 +1320,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EEC5A8C-2EDB-451C-AE63-50DA71E8941F}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1340,7 +1345,7 @@
         <v>20</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1354,7 +1359,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1387,6 +1392,17 @@
         <v>50</v>
       </c>
       <c r="C5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1400,9 +1416,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9692A888-97C1-44B2-9140-F9F050732970}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1421,13 +1437,13 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1435,10 +1451,10 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" t="s">
         <v>72</v>
-      </c>
-      <c r="C2" t="s">
-        <v>73</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1452,10 +1468,10 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D3">
         <v>0.75</v>
@@ -1469,10 +1485,10 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D4">
         <v>0.75</v>
@@ -1486,10 +1502,10 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D5">
         <v>0.5</v>
@@ -1503,10 +1519,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D6">
         <v>0.25</v>
@@ -1520,7 +1536,7 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
         <v>49</v>
@@ -1534,18 +1550,86 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" t="s">
         <v>79</v>
       </c>
-      <c r="B8" t="s">
-        <v>80</v>
-      </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8">
         <v>50</v>
       </c>
       <c r="E8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" t="s">
         <v>3</v>
       </c>
     </row>

--- a/Reference files/Setup_data.xlsx
+++ b/Reference files/Setup_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erica.Williams\Documents\GitHub\HSM-and-mapping\Reference files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erica.Levine\Documents\GitHub\HSM-and-mapping\Reference files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45D2532-A4BB-4D04-B308-6B06F08243B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E06CEA8-C772-4CFC-81FF-D2880ADB5F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{ABA54846-BF8B-4CFF-808A-98E7C297F143}"/>
+    <workbookView xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="16440" xr2:uid="{ABA54846-BF8B-4CFF-808A-98E7C297F143}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="5" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="84">
   <si>
     <t>Site</t>
   </si>
@@ -230,9 +230,6 @@
   </si>
   <si>
     <t>Oysters in Florida GSI layer. Source FWC</t>
-  </si>
-  <si>
-    <t>Decscription</t>
   </si>
   <si>
     <t>Description of data layer including source of data.</t>
@@ -490,7 +487,7 @@
     <tableColumn id="1" xr3:uid="{5519B2E3-398D-4910-B2B3-9C35C0C36B8E}" name="Parameter"/>
     <tableColumn id="2" xr3:uid="{89BFB1ED-5765-4484-8DD0-4EF9A48A6028}" name="Layer_name"/>
     <tableColumn id="3" xr3:uid="{D9807E9C-4BAF-484F-93F6-BF0E9DEB2EC4}" name="Priority"/>
-    <tableColumn id="4" xr3:uid="{7C4466E1-8375-4529-8D01-8CEC01CDAA7D}" name="Decscription"/>
+    <tableColumn id="4" xr3:uid="{7C4466E1-8375-4529-8D01-8CEC01CDAA7D}" name="Description"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -829,7 +826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49AF02D2-80D6-4FBF-8F69-14799DFC26B6}">
   <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -906,13 +903,13 @@
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Z5" t="s">
         <v>55</v>
@@ -1006,12 +1003,12 @@
         <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1020,7 +1017,7 @@
         <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
@@ -1032,7 +1029,7 @@
         <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
@@ -1044,7 +1041,7 @@
         <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
@@ -1053,22 +1050,22 @@
         <v>60</v>
       </c>
       <c r="C16" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" t="s">
         <v>69</v>
-      </c>
-      <c r="D16" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1109,7 +1106,7 @@
         <v>7</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1279,7 +1276,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1322,9 +1319,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EEC5A8C-2EDB-451C-AE63-50DA71E8941F}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1345,7 +1340,7 @@
         <v>20</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1400,7 +1395,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s">
         <v>49</v>
@@ -1418,7 +1413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9692A888-97C1-44B2-9140-F9F050732970}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1443,7 +1438,7 @@
         <v>60</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1451,10 +1446,10 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" t="s">
         <v>71</v>
-      </c>
-      <c r="C2" t="s">
-        <v>72</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1468,10 +1463,10 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D3">
         <v>0.75</v>
@@ -1485,10 +1480,10 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D4">
         <v>0.75</v>
@@ -1502,10 +1497,10 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D5">
         <v>0.5</v>
@@ -1519,10 +1514,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D6">
         <v>0.25</v>
@@ -1536,7 +1531,7 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
         <v>49</v>
@@ -1550,10 +1545,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" t="s">
         <v>78</v>
-      </c>
-      <c r="B8" t="s">
-        <v>79</v>
       </c>
       <c r="C8" t="s">
         <v>59</v>
@@ -1570,7 +1565,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -1587,7 +1582,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -1604,7 +1599,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -1621,7 +1616,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>

--- a/Reference files/Setup_data.xlsx
+++ b/Reference files/Setup_data.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erica.Levine\Documents\GitHub\HSM-and-mapping\Reference files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erica.Williams\Documents\GitHub\HSM-and-mapping\Reference files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E06CEA8-C772-4CFC-81FF-D2880ADB5F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4815899D-82D6-48F6-8701-2A60FD944806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="-120" windowWidth="27870" windowHeight="16440" xr2:uid="{ABA54846-BF8B-4CFF-808A-98E7C297F143}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{ABA54846-BF8B-4CFF-808A-98E7C297F143}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="5" r:id="rId1"/>
     <sheet name="Long_Names" sheetId="2" r:id="rId2"/>
     <sheet name="Section_Order" sheetId="1" r:id="rId3"/>
     <sheet name="Parameter_Order" sheetId="4" r:id="rId4"/>
-    <sheet name="Parameter_Scoring" sheetId="6" r:id="rId5"/>
-    <sheet name="Testing" sheetId="3" r:id="rId6"/>
+    <sheet name="Testing" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="88">
   <si>
     <t>Site</t>
   </si>
@@ -223,83 +222,95 @@
     <t>Testing</t>
   </si>
   <si>
-    <t>Score</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
     <t>Oysters in Florida GSI layer. Source FWC</t>
   </si>
   <si>
     <t>Description of data layer including source of data.</t>
   </si>
   <si>
-    <t>Parameter_Scoring</t>
-  </si>
-  <si>
-    <t>Type of data. Should match name found in Parameter_Order sheet.</t>
-  </si>
-  <si>
-    <t>Name of column used for assigning scores.</t>
-  </si>
-  <si>
-    <t>Name or value used for assigning scores. If a name is used, the "Name" should match the character name used for polygons. If a value is used, the value should indicate the cut point for the score (i.e., upper or lower bounding value).</t>
-  </si>
-  <si>
-    <t>d.[dd]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number from 0 to 1 (inclusive) indicating scoring for value with 1 being high/better and 0 being low/worse. </t>
-  </si>
-  <si>
-    <t>OYSTER</t>
-  </si>
-  <si>
-    <t>Live</t>
-  </si>
-  <si>
-    <t>Mostly Live</t>
-  </si>
-  <si>
-    <t>Restored</t>
-  </si>
-  <si>
-    <t>50/50</t>
-  </si>
-  <si>
-    <t>Mostly Dead</t>
-  </si>
-  <si>
     <t>Is_Used</t>
   </si>
   <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>TEST</t>
-  </si>
-  <si>
     <t>Is the information being used in the model, Yes (Y) or (N)?</t>
   </si>
   <si>
-    <t xml:space="preserve">Is the data layer being used in the model, Yes (Y) or (N)? Update to "N" if not being used, do not delete from table. </t>
-  </si>
-  <si>
     <t>Shellfish Harvest Areas</t>
   </si>
   <si>
     <t>SL-North</t>
   </si>
   <si>
-    <t>InProgress</t>
+    <t>SL-C</t>
+  </si>
+  <si>
+    <t>SL-N</t>
+  </si>
+  <si>
+    <t>SL-S</t>
+  </si>
+  <si>
+    <t>St. Lucie-Central</t>
+  </si>
+  <si>
+    <t>St. Lucie-North</t>
+  </si>
+  <si>
+    <t>St. Lucie-South</t>
+  </si>
+  <si>
+    <t>Oyster_Beds_in_Florida</t>
+  </si>
+  <si>
+    <t>Seagrass_Habitat_in_FL</t>
+  </si>
+  <si>
+    <t>NavChannels</t>
+  </si>
+  <si>
+    <t>Waterways</t>
+  </si>
+  <si>
+    <t>Navigational channels</t>
+  </si>
+  <si>
+    <t>Shellfish harvest area classifcations</t>
+  </si>
+  <si>
+    <t>Column_name</t>
+  </si>
+  <si>
+    <t>OYSTERS</t>
+  </si>
+  <si>
+    <t>SEAGRASS</t>
+  </si>
+  <si>
+    <t>CLASS</t>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>Column name to reference for data to assign parameter scores</t>
+  </si>
+  <si>
+    <t>Pred_value</t>
+  </si>
+  <si>
+    <t>Predicted salinity data</t>
+  </si>
+  <si>
+    <t>Predicted water temperature data</t>
+  </si>
+  <si>
+    <t>Seagrass habitat in Florida</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,13 +322,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -343,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -358,9 +362,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -368,25 +369,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <b/>
@@ -455,8 +438,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2290EAFA-E702-4013-855B-8287C2917115}" name="Table1" displayName="Table1" ref="A1:D7" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A1:D7" xr:uid="{2290EAFA-E702-4013-855B-8287C2917115}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2290EAFA-E702-4013-855B-8287C2917115}" name="Table1" displayName="Table1" ref="A1:D10" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:D10" xr:uid="{2290EAFA-E702-4013-855B-8287C2917115}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{0F3EFAE7-C43F-43A4-98CD-33BD085FAA71}" name="Type"/>
     <tableColumn id="2" xr3:uid="{41903F13-457D-4BE8-83A4-BBEA9A0794AA}" name="Designation"/>
@@ -468,7 +451,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E2821D4A-29BF-4DC8-B339-8E2AA5FC96D3}" name="Table2" displayName="Table2" ref="A1:D5" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E2821D4A-29BF-4DC8-B339-8E2AA5FC96D3}" name="Table2" displayName="Table2" ref="A1:D5" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A1:D5" xr:uid="{E2821D4A-29BF-4DC8-B339-8E2AA5FC96D3}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{6698C1C8-6642-4681-845E-5BC43253DE59}" name="Site"/>
@@ -481,27 +464,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6FA0BAA3-47DA-49C8-91CB-0A2E7355A2B5}" name="Table3" displayName="Table3" ref="A1:D6" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:D6" xr:uid="{6FA0BAA3-47DA-49C8-91CB-0A2E7355A2B5}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6FA0BAA3-47DA-49C8-91CB-0A2E7355A2B5}" name="Table3" displayName="Table3" ref="A1:E7" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:E7" xr:uid="{6FA0BAA3-47DA-49C8-91CB-0A2E7355A2B5}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{5519B2E3-398D-4910-B2B3-9C35C0C36B8E}" name="Parameter"/>
     <tableColumn id="2" xr3:uid="{89BFB1ED-5765-4484-8DD0-4EF9A48A6028}" name="Layer_name"/>
+    <tableColumn id="5" xr3:uid="{3FC64101-BD91-46FF-93B8-B2B46BC9EF8F}" name="Column_name"/>
     <tableColumn id="3" xr3:uid="{D9807E9C-4BAF-484F-93F6-BF0E9DEB2EC4}" name="Priority"/>
     <tableColumn id="4" xr3:uid="{7C4466E1-8375-4529-8D01-8CEC01CDAA7D}" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F24C184F-0B25-4CE5-8518-C520F9CC7EAD}" name="Table4" displayName="Table4" ref="A1:E12" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:E12" xr:uid="{F24C184F-0B25-4CE5-8518-C520F9CC7EAD}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{29810767-E8A8-4828-9056-1D2F10D55B05}" name="Parameter"/>
-    <tableColumn id="2" xr3:uid="{B9565D10-3D3D-47CA-9DF8-CCB53563CAE2}" name="Column Name"/>
-    <tableColumn id="3" xr3:uid="{084F224E-CB03-4C97-83C6-AF08525BCB0E}" name="Value"/>
-    <tableColumn id="4" xr3:uid="{056F6D16-7766-41DD-A515-E5F5651CB5D8}" name="Score"/>
-    <tableColumn id="5" xr3:uid="{07D2E72B-9FE4-4424-86CF-02DCDBBB2345}" name="Is_Used"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -824,19 +794,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49AF02D2-80D6-4FBF-8F69-14799DFC26B6}">
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:Z13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="210.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="210.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>26</v>
       </c>
@@ -853,8 +823,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -870,8 +840,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
       <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
@@ -885,8 +855,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A4" s="6"/>
       <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
@@ -900,23 +870,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A5" s="6"/>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="Z5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -932,8 +902,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
       <c r="B7" s="5" t="s">
         <v>1</v>
       </c>
@@ -944,8 +914,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
       <c r="B8" s="5" t="s">
         <v>2</v>
       </c>
@@ -956,8 +926,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -970,8 +940,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
       <c r="B10" s="5" t="s">
         <v>25</v>
       </c>
@@ -982,98 +952,47 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
       <c r="B11" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="5" t="s">
+    <row r="13" spans="1:26" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" t="s">
-        <v>80</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A9:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1081,21 +1000,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A98269-D1F2-4AAA-B75F-45C7BEE80E81}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -1106,10 +1025,10 @@
         <v>7</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1123,7 +1042,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1137,7 +1056,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1151,7 +1070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1165,7 +1084,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1179,7 +1098,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1191,6 +1110,48 @@
       </c>
       <c r="D7" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1229,15 +1190,15 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1251,7 +1212,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -1265,7 +1226,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -1276,10 +1237,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>44</v>
       </c>
@@ -1293,7 +1254,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -1317,19 +1278,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EEC5A8C-2EDB-451C-AE63-50DA71E8941F}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="36.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -1337,68 +1301,115 @@
         <v>25</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>23</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" t="s">
         <v>81</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>49</v>
+      </c>
+      <c r="E6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1410,233 +1421,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9692A888-97C1-44B2-9140-F9F050732970}">
-  <dimension ref="A1:E12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3">
-        <v>0.75</v>
-      </c>
-      <c r="E3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4">
-        <v>0.75</v>
-      </c>
-      <c r="E4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5">
-        <v>0.5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6">
-        <v>0.25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8">
-        <v>50</v>
-      </c>
-      <c r="E8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D1058D-E616-411E-871D-16CD52DEFA8F}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1644,9 +1428,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>19</v>
       </c>

--- a/Reference files/Setup_data.xlsx
+++ b/Reference files/Setup_data.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erica.Williams\Documents\GitHub\HSM-and-mapping\Reference files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erica.Levine\Documents\GitHub\HSM-and-mapping\Reference files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4815899D-82D6-48F6-8701-2A60FD944806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479AD505-4C28-4F79-9179-962FF119C1B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{ABA54846-BF8B-4CFF-808A-98E7C297F143}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ABA54846-BF8B-4CFF-808A-98E7C297F143}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="5" r:id="rId1"/>
     <sheet name="Long_Names" sheetId="2" r:id="rId2"/>
     <sheet name="Section_Order" sheetId="1" r:id="rId3"/>
     <sheet name="Parameter_Order" sheetId="4" r:id="rId4"/>
-    <sheet name="Testing" sheetId="3" r:id="rId5"/>
+    <sheet name="Parameter_Levels" sheetId="6" r:id="rId5"/>
+    <sheet name="Testing" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="128">
   <si>
     <t>Site</t>
   </si>
@@ -186,12 +187,6 @@
     <t>Short code used for identification</t>
   </si>
   <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>Seagrass</t>
   </si>
   <si>
@@ -219,9 +214,6 @@
     <t>SL-South</t>
   </si>
   <si>
-    <t>Testing</t>
-  </si>
-  <si>
     <t>Oysters in Florida GSI layer. Source FWC</t>
   </si>
   <si>
@@ -304,6 +296,135 @@
   </si>
   <si>
     <t>Seagrass habitat in Florida</t>
+  </si>
+  <si>
+    <t>SS-C</t>
+  </si>
+  <si>
+    <t>SS-N</t>
+  </si>
+  <si>
+    <t>SS-S</t>
+  </si>
+  <si>
+    <t>Suwanne Sound-South</t>
+  </si>
+  <si>
+    <t>Suwanne Sound-Central</t>
+  </si>
+  <si>
+    <t>Suwanne Sound-North</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>Suwanne Sound</t>
+  </si>
+  <si>
+    <t>SS-Central</t>
+  </si>
+  <si>
+    <t>SS-North</t>
+  </si>
+  <si>
+    <t>SS-South</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Live</t>
+  </si>
+  <si>
+    <t>Mostly live</t>
+  </si>
+  <si>
+    <t>50/50</t>
+  </si>
+  <si>
+    <t>Restored</t>
+  </si>
+  <si>
+    <t>Mostly dead</t>
+  </si>
+  <si>
+    <t>Patchy</t>
+  </si>
+  <si>
+    <t>Continuous</t>
+  </si>
+  <si>
+    <t>Aquaculture_Lease</t>
+  </si>
+  <si>
+    <t>Aquculture[…]</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Aquaculture lease areas in use or available</t>
+  </si>
+  <si>
+    <t>Occupied</t>
+  </si>
+  <si>
+    <t>Vacant</t>
+  </si>
+  <si>
+    <t>General Pathway</t>
+  </si>
+  <si>
+    <t>Marked - Local Terminus</t>
+  </si>
+  <si>
+    <t>Marked Channel - Primary</t>
+  </si>
+  <si>
+    <t>Unmarked - Local Terminus</t>
+  </si>
+  <si>
+    <t>Marked Channel - Secondary</t>
+  </si>
+  <si>
+    <t>Marked Channel - Teritiary</t>
+  </si>
+  <si>
+    <t>Marked Channel - Large Vessel</t>
+  </si>
+  <si>
+    <t>Offshore Route</t>
+  </si>
+  <si>
+    <t>Not Designated Yet</t>
+  </si>
+  <si>
+    <t>Marked Channel - Local Terminus</t>
+  </si>
+  <si>
+    <t>Shallow Water Route</t>
+  </si>
+  <si>
+    <t>Shortcut</t>
+  </si>
+  <si>
+    <t>(Blank)</t>
+  </si>
+  <si>
+    <t>Marked Channel - Pimary</t>
+  </si>
+  <si>
+    <t>Marked Channel- Local Terminus</t>
+  </si>
+  <si>
+    <t>Nav_Channels</t>
+  </si>
+  <si>
+    <t>Levels possible within the data layer</t>
+  </si>
+  <si>
+    <t>Parameter_Levels</t>
   </si>
 </sst>
 </file>
@@ -347,7 +468,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -365,6 +486,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,8 +560,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2290EAFA-E702-4013-855B-8287C2917115}" name="Table1" displayName="Table1" ref="A1:D10" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:D10" xr:uid="{2290EAFA-E702-4013-855B-8287C2917115}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2290EAFA-E702-4013-855B-8287C2917115}" name="Table1" displayName="Table1" ref="A1:D14" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:D14" xr:uid="{2290EAFA-E702-4013-855B-8287C2917115}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{0F3EFAE7-C43F-43A4-98CD-33BD085FAA71}" name="Type"/>
     <tableColumn id="2" xr3:uid="{41903F13-457D-4BE8-83A4-BBEA9A0794AA}" name="Designation"/>
@@ -451,8 +573,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E2821D4A-29BF-4DC8-B339-8E2AA5FC96D3}" name="Table2" displayName="Table2" ref="A1:D5" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:D5" xr:uid="{E2821D4A-29BF-4DC8-B339-8E2AA5FC96D3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E2821D4A-29BF-4DC8-B339-8E2AA5FC96D3}" name="Table2" displayName="Table2" ref="A1:D7" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:D7" xr:uid="{E2821D4A-29BF-4DC8-B339-8E2AA5FC96D3}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{6698C1C8-6642-4681-845E-5BC43253DE59}" name="Site"/>
     <tableColumn id="2" xr3:uid="{284BB4AC-9EFF-40DB-ABEC-145F6F552E3E}" name="Section"/>
@@ -464,8 +586,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6FA0BAA3-47DA-49C8-91CB-0A2E7355A2B5}" name="Table3" displayName="Table3" ref="A1:E7" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:E7" xr:uid="{6FA0BAA3-47DA-49C8-91CB-0A2E7355A2B5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6FA0BAA3-47DA-49C8-91CB-0A2E7355A2B5}" name="Table3" displayName="Table3" ref="A1:E8" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:E8" xr:uid="{6FA0BAA3-47DA-49C8-91CB-0A2E7355A2B5}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{5519B2E3-398D-4910-B2B3-9C35C0C36B8E}" name="Parameter"/>
     <tableColumn id="2" xr3:uid="{89BFB1ED-5765-4484-8DD0-4EF9A48A6028}" name="Layer_name"/>
@@ -794,7 +916,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49AF02D2-80D6-4FBF-8F69-14799DFC26B6}">
-  <dimension ref="A1:Z13"/>
+  <dimension ref="A1:Z17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -820,7 +942,7 @@
         <v>29</v>
       </c>
       <c r="Z1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
@@ -837,7 +959,7 @@
         <v>34</v>
       </c>
       <c r="Z2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
@@ -852,7 +974,7 @@
         <v>47</v>
       </c>
       <c r="Z3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
@@ -873,16 +995,16 @@
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="Z5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
@@ -899,7 +1021,7 @@
         <v>37</v>
       </c>
       <c r="Z6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
@@ -955,13 +1077,13 @@
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
@@ -985,25 +1107,77 @@
         <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A14:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A98269-D1F2-4AAA-B75F-45C7BEE80E81}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1025,7 +1199,7 @@
         <v>7</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1039,7 +1213,7 @@
         <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1053,7 +1227,7 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1067,7 +1241,7 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1081,7 +1255,7 @@
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1095,7 +1269,7 @@
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1109,7 +1283,7 @@
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1117,13 +1291,13 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" t="s">
         <v>66</v>
       </c>
-      <c r="C8" t="s">
-        <v>69</v>
-      </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1131,13 +1305,13 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" t="s">
         <v>67</v>
       </c>
-      <c r="C9" t="s">
-        <v>70</v>
-      </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1145,24 +1319,72 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" t="s">
         <v>68</v>
       </c>
-      <c r="C10" t="s">
-        <v>71</v>
-      </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D6" xr:uid="{F53B929E-5726-4F83-A1EB-4890C7F3A734}">
-      <formula1>"Metadata!$Z$3:$Z$4"</formula1>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid entry" error="Value entered must either bu &quot;Y&quot; to indicate this name is needed or &quot;N&quot; to indicate it is not needed." sqref="D7" xr:uid="{C4ED4855-1BEE-40B8-BCB5-47A2ACB71899}">
-      <formula1>"Metadata!$Z$3:$Z$4"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -1184,10 +1406,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404EDE7E-0283-496B-A219-853162C38F92}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1209,7 +1431,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1223,7 +1445,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1237,7 +1459,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1251,21 +1473,49 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1278,10 +1528,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EEC5A8C-2EDB-451C-AE63-50DA71E8941F}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A7" sqref="A7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1301,7 +1551,7 @@
         <v>25</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>20</v>
@@ -1315,16 +1565,16 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1335,13 +1585,13 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1352,30 +1602,30 @@
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1383,33 +1633,50 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" t="s">
-        <v>49</v>
+        <v>78</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>76</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1421,6 +1688,447 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9A3A6A3-7FCA-49DF-B5CA-10FF90C109D0}">
+  <dimension ref="A1:D30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>125</v>
+      </c>
+      <c r="B16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>125</v>
+      </c>
+      <c r="B19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>125</v>
+      </c>
+      <c r="B21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>125</v>
+      </c>
+      <c r="B22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>125</v>
+      </c>
+      <c r="B23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>125</v>
+      </c>
+      <c r="B24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>125</v>
+      </c>
+      <c r="B25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>125</v>
+      </c>
+      <c r="B26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>125</v>
+      </c>
+      <c r="B27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>125</v>
+      </c>
+      <c r="B28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>125</v>
+      </c>
+      <c r="B29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>125</v>
+      </c>
+      <c r="B30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D1058D-E616-411E-871D-16CD52DEFA8F}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/Reference files/Setup_data.xlsx
+++ b/Reference files/Setup_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erica.Levine\Documents\GitHub\HSM-and-mapping\Reference files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479AD505-4C28-4F79-9179-962FF119C1B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9AB9BC-A98C-414B-8F05-2FD885630782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ABA54846-BF8B-4CFF-808A-98E7C297F143}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="129">
   <si>
     <t>Site</t>
   </si>
@@ -425,6 +425,9 @@
   </si>
   <si>
     <t>Parameter_Levels</t>
+  </si>
+  <si>
+    <t>Pred_Value</t>
   </si>
 </sst>
 </file>
@@ -468,7 +471,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -486,7 +489,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1114,7 +1116,7 @@
       <c r="A14" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1126,7 +1128,7 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
-      <c r="B15" s="7" t="s">
+      <c r="B15" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -1138,7 +1140,7 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
-      <c r="B16" s="7" t="s">
+      <c r="B16" t="s">
         <v>75</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -1150,7 +1152,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
-      <c r="B17" s="7" t="s">
+      <c r="B17" t="s">
         <v>96</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -1531,7 +1533,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:C7"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1689,11 +1691,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9A3A6A3-7FCA-49DF-B5CA-10FF90C109D0}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2121,6 +2121,34 @@
       </c>
       <c r="D30" t="s">
         <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" t="s">
+        <v>128</v>
+      </c>
+      <c r="D31" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" t="s">
+        <v>128</v>
+      </c>
+      <c r="D32" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/Reference files/Setup_data.xlsx
+++ b/Reference files/Setup_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erica.Levine\Documents\GitHub\HSM-and-mapping\Reference files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erica.Williams\Documents\GitHub\HSM-and-mapping\Reference files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9AB9BC-A98C-414B-8F05-2FD885630782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D25A7E-971C-4590-A652-142311ABC166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ABA54846-BF8B-4CFF-808A-98E7C297F143}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{ABA54846-BF8B-4CFF-808A-98E7C297F143}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="5" r:id="rId1"/>
@@ -271,9 +271,6 @@
     <t>Column_name</t>
   </si>
   <si>
-    <t>OYSTERS</t>
-  </si>
-  <si>
     <t>SEAGRASS</t>
   </si>
   <si>
@@ -428,6 +425,9 @@
   </si>
   <si>
     <t>Pred_Value</t>
+  </si>
+  <si>
+    <t>OYSTER</t>
   </si>
 </sst>
 </file>
@@ -920,7 +920,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49AF02D2-80D6-4FBF-8F69-14799DFC26B6}">
   <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1085,7 +1085,7 @@
         <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
@@ -1114,7 +1114,7 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>
@@ -1147,19 +1147,19 @@
         <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1335,10 +1335,10 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D11" t="s">
         <v>50</v>
@@ -1349,10 +1349,10 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D12" t="s">
         <v>50</v>
@@ -1363,10 +1363,10 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" t="s">
         <v>87</v>
-      </c>
-      <c r="C13" t="s">
-        <v>88</v>
       </c>
       <c r="D13" t="s">
         <v>50</v>
@@ -1377,10 +1377,10 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" t="s">
         <v>91</v>
-      </c>
-      <c r="C14" t="s">
-        <v>92</v>
       </c>
       <c r="D14" t="s">
         <v>50</v>
@@ -1480,7 +1480,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B5" t="s">
         <v>46</v>
@@ -1489,12 +1489,12 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -1503,12 +1503,12 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -1517,7 +1517,7 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1532,9 +1532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EEC5A8C-2EDB-451C-AE63-50DA71E8941F}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1570,7 +1568,7 @@
         <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1587,13 +1585,13 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1604,13 +1602,13 @@
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1621,13 +1619,13 @@
         <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1638,7 +1636,7 @@
         <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D6">
         <v>6</v>
@@ -1655,7 +1653,7 @@
         <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -1666,19 +1664,19 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" t="s">
         <v>104</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>105</v>
-      </c>
-      <c r="C8" t="s">
-        <v>106</v>
       </c>
       <c r="D8">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1693,7 +1691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9A3A6A3-7FCA-49DF-B5CA-10FF90C109D0}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1714,7 +1712,7 @@
         <v>75</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1725,10 +1723,10 @@
         <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="D2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1739,10 +1737,10 @@
         <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="D3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1753,10 +1751,10 @@
         <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="D4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1767,10 +1765,10 @@
         <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="D5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1781,10 +1779,10 @@
         <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="D6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1795,10 +1793,10 @@
         <v>70</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1809,10 +1807,10 @@
         <v>70</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1823,7 +1821,7 @@
         <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -1837,7 +1835,7 @@
         <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
@@ -1851,7 +1849,7 @@
         <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -1865,7 +1863,7 @@
         <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D12" t="s">
         <v>16</v>
@@ -1879,7 +1877,7 @@
         <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D13" t="s">
         <v>18</v>
@@ -1887,240 +1885,240 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" t="s">
         <v>104</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>105</v>
       </c>
-      <c r="C14" t="s">
-        <v>106</v>
-      </c>
       <c r="D14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" t="s">
         <v>104</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>105</v>
       </c>
-      <c r="C15" t="s">
-        <v>106</v>
-      </c>
       <c r="D15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B16" t="s">
         <v>72</v>
       </c>
       <c r="C16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B17" t="s">
         <v>72</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B18" t="s">
         <v>72</v>
       </c>
       <c r="C18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B19" t="s">
         <v>72</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B20" t="s">
         <v>72</v>
       </c>
       <c r="C20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B21" t="s">
         <v>72</v>
       </c>
       <c r="C21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B22" t="s">
         <v>72</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B23" t="s">
         <v>72</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B24" t="s">
         <v>72</v>
       </c>
       <c r="C24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B25" t="s">
         <v>72</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B26" t="s">
         <v>72</v>
       </c>
       <c r="C26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B27" t="s">
         <v>72</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B28" t="s">
         <v>72</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B29" t="s">
         <v>72</v>
       </c>
       <c r="C29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B30" t="s">
         <v>72</v>
       </c>
       <c r="C30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -2131,10 +2129,10 @@
         <v>22</v>
       </c>
       <c r="C31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -2145,10 +2143,10 @@
         <v>23</v>
       </c>
       <c r="C32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/Reference files/Setup_data.xlsx
+++ b/Reference files/Setup_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erica.Levine\Documents\GitHub\HSM-and-mapping\Reference files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erica.Williams\Documents\GitHub\HSM-and-mapping\Reference files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9AB9BC-A98C-414B-8F05-2FD885630782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D905EAB7-3B10-4E0A-81B9-CD487EAC4964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ABA54846-BF8B-4CFF-808A-98E7C297F143}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{ABA54846-BF8B-4CFF-808A-98E7C297F143}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="5" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="133">
   <si>
     <t>Site</t>
   </si>
@@ -319,9 +319,6 @@
     <t>SS</t>
   </si>
   <si>
-    <t>Suwanne Sound</t>
-  </si>
-  <si>
     <t>SS-Central</t>
   </si>
   <si>
@@ -428,6 +425,21 @@
   </si>
   <si>
     <t>Pred_Value</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>Suwannee Sound South</t>
+  </si>
+  <si>
+    <t>Suwannee Sound</t>
+  </si>
+  <si>
+    <t>UN</t>
+  </si>
+  <si>
+    <t>Suwannee Sound North</t>
   </si>
 </sst>
 </file>
@@ -562,8 +574,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2290EAFA-E702-4013-855B-8287C2917115}" name="Table1" displayName="Table1" ref="A1:D14" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:D14" xr:uid="{2290EAFA-E702-4013-855B-8287C2917115}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2290EAFA-E702-4013-855B-8287C2917115}" name="Table1" displayName="Table1" ref="A1:D17" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:D17" xr:uid="{2290EAFA-E702-4013-855B-8287C2917115}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{0F3EFAE7-C43F-43A4-98CD-33BD085FAA71}" name="Type"/>
     <tableColumn id="2" xr3:uid="{41903F13-457D-4BE8-83A4-BBEA9A0794AA}" name="Designation"/>
@@ -1114,7 +1126,7 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>
@@ -1153,13 +1165,13 @@
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1176,11 +1188,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A98269-D1F2-4AAA-B75F-45C7BEE80E81}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1380,10 +1390,38 @@
         <v>91</v>
       </c>
       <c r="C14" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="D14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" t="s">
+        <v>129</v>
+      </c>
+      <c r="D15" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" t="s">
+        <v>132</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1489,7 +1527,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1503,7 +1541,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1517,7 +1555,7 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1666,19 +1704,19 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" t="s">
         <v>104</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>105</v>
-      </c>
-      <c r="C8" t="s">
-        <v>106</v>
       </c>
       <c r="D8">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1714,7 +1752,7 @@
         <v>75</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1728,7 +1766,7 @@
         <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1742,7 +1780,7 @@
         <v>76</v>
       </c>
       <c r="D3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1756,7 +1794,7 @@
         <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1770,7 +1808,7 @@
         <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1784,7 +1822,7 @@
         <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1798,7 +1836,7 @@
         <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1812,7 +1850,7 @@
         <v>77</v>
       </c>
       <c r="D8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1887,35 +1925,35 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" t="s">
         <v>104</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>105</v>
       </c>
-      <c r="C14" t="s">
-        <v>106</v>
-      </c>
       <c r="D14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" t="s">
         <v>104</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>105</v>
       </c>
-      <c r="C15" t="s">
-        <v>106</v>
-      </c>
       <c r="D15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B16" t="s">
         <v>72</v>
@@ -1924,12 +1962,12 @@
         <v>79</v>
       </c>
       <c r="D16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B17" t="s">
         <v>72</v>
@@ -1938,12 +1976,12 @@
         <v>79</v>
       </c>
       <c r="D17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B18" t="s">
         <v>72</v>
@@ -1952,12 +1990,12 @@
         <v>79</v>
       </c>
       <c r="D18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B19" t="s">
         <v>72</v>
@@ -1966,12 +2004,12 @@
         <v>79</v>
       </c>
       <c r="D19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B20" t="s">
         <v>72</v>
@@ -1980,12 +2018,12 @@
         <v>79</v>
       </c>
       <c r="D20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B21" t="s">
         <v>72</v>
@@ -1994,12 +2032,12 @@
         <v>79</v>
       </c>
       <c r="D21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B22" t="s">
         <v>72</v>
@@ -2008,12 +2046,12 @@
         <v>79</v>
       </c>
       <c r="D22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B23" t="s">
         <v>72</v>
@@ -2022,12 +2060,12 @@
         <v>79</v>
       </c>
       <c r="D23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B24" t="s">
         <v>72</v>
@@ -2036,12 +2074,12 @@
         <v>79</v>
       </c>
       <c r="D24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B25" t="s">
         <v>72</v>
@@ -2050,12 +2088,12 @@
         <v>79</v>
       </c>
       <c r="D25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B26" t="s">
         <v>72</v>
@@ -2064,12 +2102,12 @@
         <v>79</v>
       </c>
       <c r="D26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B27" t="s">
         <v>72</v>
@@ -2078,12 +2116,12 @@
         <v>79</v>
       </c>
       <c r="D27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B28" t="s">
         <v>72</v>
@@ -2092,12 +2130,12 @@
         <v>79</v>
       </c>
       <c r="D28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B29" t="s">
         <v>72</v>
@@ -2106,12 +2144,12 @@
         <v>79</v>
       </c>
       <c r="D29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B30" t="s">
         <v>72</v>
@@ -2120,7 +2158,7 @@
         <v>79</v>
       </c>
       <c r="D30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -2131,10 +2169,10 @@
         <v>22</v>
       </c>
       <c r="C31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -2145,10 +2183,10 @@
         <v>23</v>
       </c>
       <c r="C32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/Reference files/Setup_data.xlsx
+++ b/Reference files/Setup_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erica.Williams\Documents\GitHub\HSM-and-mapping\Reference files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D905EAB7-3B10-4E0A-81B9-CD487EAC4964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7050C05B-DC87-4E48-A547-E15453D2F7F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{ABA54846-BF8B-4CFF-808A-98E7C297F143}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{ABA54846-BF8B-4CFF-808A-98E7C297F143}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="5" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="147">
   <si>
     <t>Site</t>
   </si>
@@ -440,6 +440,48 @@
   </si>
   <si>
     <t>Suwannee Sound North</t>
+  </si>
+  <si>
+    <t>WI</t>
+  </si>
+  <si>
+    <t>Withlacoochee</t>
+  </si>
+  <si>
+    <t>WI-CI</t>
+  </si>
+  <si>
+    <t>WI-WC</t>
+  </si>
+  <si>
+    <t>WI-WA</t>
+  </si>
+  <si>
+    <t>Withlacoochee-Citrus</t>
+  </si>
+  <si>
+    <t>Withlacoochee-Waccasassa</t>
+  </si>
+  <si>
+    <t>Withlacoochee-Withlacoochee</t>
+  </si>
+  <si>
+    <t>WI-Waccasassa</t>
+  </si>
+  <si>
+    <t>WI-Withlacoochee</t>
+  </si>
+  <si>
+    <t>WI-Citrus</t>
+  </si>
+  <si>
+    <t>WA</t>
+  </si>
+  <si>
+    <t>WC</t>
+  </si>
+  <si>
+    <t>CI</t>
   </si>
 </sst>
 </file>
@@ -574,8 +616,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2290EAFA-E702-4013-855B-8287C2917115}" name="Table1" displayName="Table1" ref="A1:D17" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:D17" xr:uid="{2290EAFA-E702-4013-855B-8287C2917115}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2290EAFA-E702-4013-855B-8287C2917115}" name="Table1" displayName="Table1" ref="A1:D20" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:D20" xr:uid="{2290EAFA-E702-4013-855B-8287C2917115}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{0F3EFAE7-C43F-43A4-98CD-33BD085FAA71}" name="Type"/>
     <tableColumn id="2" xr3:uid="{41903F13-457D-4BE8-83A4-BBEA9A0794AA}" name="Designation"/>
@@ -587,8 +629,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E2821D4A-29BF-4DC8-B339-8E2AA5FC96D3}" name="Table2" displayName="Table2" ref="A1:D7" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:D7" xr:uid="{E2821D4A-29BF-4DC8-B339-8E2AA5FC96D3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E2821D4A-29BF-4DC8-B339-8E2AA5FC96D3}" name="Table2" displayName="Table2" ref="A1:D10" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:D10" xr:uid="{E2821D4A-29BF-4DC8-B339-8E2AA5FC96D3}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{6698C1C8-6642-4681-845E-5BC43253DE59}" name="Site"/>
     <tableColumn id="2" xr3:uid="{284BB4AC-9EFF-40DB-ABEC-145F6F552E3E}" name="Section"/>
@@ -934,15 +976,15 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="210.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="210.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>26</v>
       </c>
@@ -959,7 +1001,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>30</v>
       </c>
@@ -976,7 +1018,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="5" t="s">
         <v>6</v>
@@ -991,7 +1033,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="5" t="s">
         <v>7</v>
@@ -1006,7 +1048,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" t="s">
         <v>59</v>
@@ -1021,7 +1063,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>31</v>
       </c>
@@ -1038,7 +1080,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="5" t="s">
         <v>1</v>
@@ -1050,7 +1092,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="5" t="s">
         <v>2</v>
@@ -1062,7 +1104,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>32</v>
       </c>
@@ -1076,7 +1118,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="5" t="s">
         <v>25</v>
@@ -1088,7 +1130,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="5" t="s">
         <v>75</v>
@@ -1100,7 +1142,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="5" t="s">
         <v>20</v>
@@ -1112,7 +1154,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="5" t="s">
         <v>29</v>
@@ -1124,7 +1166,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>126</v>
       </c>
@@ -1138,7 +1180,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" t="s">
         <v>25</v>
@@ -1150,7 +1192,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" t="s">
         <v>75</v>
@@ -1162,7 +1204,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" t="s">
         <v>95</v>
@@ -1188,19 +1230,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A98269-D1F2-4AAA-B75F-45C7BEE80E81}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -1214,7 +1258,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1228,7 +1272,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1242,7 +1286,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1256,7 +1300,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1270,7 +1314,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1284,7 +1328,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1298,7 +1342,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -1312,7 +1356,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1326,7 +1370,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -1340,7 +1384,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -1351,10 +1395,10 @@
         <v>89</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -1365,10 +1409,10 @@
         <v>90</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -1379,10 +1423,10 @@
         <v>88</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1396,7 +1440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1407,10 +1451,10 @@
         <v>129</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1422,6 +1466,62 @@
       </c>
       <c r="D16" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" t="s">
+        <v>134</v>
+      </c>
+      <c r="D17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" t="s">
+        <v>138</v>
+      </c>
+      <c r="D18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" t="s">
+        <v>139</v>
+      </c>
+      <c r="D19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" t="s">
+        <v>140</v>
+      </c>
+      <c r="D20" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1446,21 +1546,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404EDE7E-0283-496B-A219-853162C38F92}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1474,7 +1572,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -1488,7 +1586,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -1502,7 +1600,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>44</v>
       </c>
@@ -1516,7 +1614,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>91</v>
       </c>
@@ -1530,7 +1628,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>91</v>
       </c>
@@ -1544,7 +1642,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>91</v>
       </c>
@@ -1556,6 +1654,48 @@
       </c>
       <c r="D7" t="s">
         <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1574,16 +1714,16 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" customWidth="1"/>
-    <col min="5" max="5" width="36.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -1600,7 +1740,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1617,7 +1757,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -1634,7 +1774,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1651,7 +1791,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -1668,7 +1808,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1685,7 +1825,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>71</v>
       </c>
@@ -1702,7 +1842,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>103</v>
       </c>
@@ -1733,15 +1873,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -1755,7 +1895,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1769,7 +1909,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1783,7 +1923,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1797,7 +1937,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1811,7 +1951,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1825,7 +1965,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -1839,7 +1979,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -1853,7 +1993,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1867,7 +2007,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1881,7 +2021,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1895,7 +2035,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1909,7 +2049,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1923,7 +2063,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>103</v>
       </c>
@@ -1937,7 +2077,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>103</v>
       </c>
@@ -1951,7 +2091,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>124</v>
       </c>
@@ -1965,7 +2105,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>124</v>
       </c>
@@ -1979,7 +2119,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>124</v>
       </c>
@@ -1993,7 +2133,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>124</v>
       </c>
@@ -2007,7 +2147,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>124</v>
       </c>
@@ -2021,7 +2161,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>124</v>
       </c>
@@ -2035,7 +2175,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>124</v>
       </c>
@@ -2049,7 +2189,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>124</v>
       </c>
@@ -2063,7 +2203,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>124</v>
       </c>
@@ -2077,7 +2217,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>124</v>
       </c>
@@ -2091,7 +2231,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>124</v>
       </c>
@@ -2105,7 +2245,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>124</v>
       </c>
@@ -2119,7 +2259,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>124</v>
       </c>
@@ -2133,7 +2273,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>124</v>
       </c>
@@ -2147,7 +2287,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>124</v>
       </c>
@@ -2161,7 +2301,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -2175,7 +2315,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -2202,9 +2342,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>

--- a/Reference files/Setup_data.xlsx
+++ b/Reference files/Setup_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erica.Williams\Documents\GitHub\HSM-and-mapping\Reference files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erica.Williams\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D25A7E-971C-4590-A652-142311ABC166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F678D397-0F54-4FD9-A8D5-88DB16D9D509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{ABA54846-BF8B-4CFF-808A-98E7C297F143}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{ABA54846-BF8B-4CFF-808A-98E7C297F143}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="5" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="147">
   <si>
     <t>Site</t>
   </si>
@@ -428,6 +428,60 @@
   </si>
   <si>
     <t>OYSTER</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>Suwannee Sound South</t>
+  </si>
+  <si>
+    <t>UN</t>
+  </si>
+  <si>
+    <t>Suwannee Sound North</t>
+  </si>
+  <si>
+    <t>WI</t>
+  </si>
+  <si>
+    <t>Withlacoochee</t>
+  </si>
+  <si>
+    <t>WI-CI</t>
+  </si>
+  <si>
+    <t>Withlacoochee-Citrus</t>
+  </si>
+  <si>
+    <t>WI-WC</t>
+  </si>
+  <si>
+    <t>Withlacoochee-Waccasassa</t>
+  </si>
+  <si>
+    <t>WI-WA</t>
+  </si>
+  <si>
+    <t>Withlacoochee-Withlacoochee</t>
+  </si>
+  <si>
+    <t>WA</t>
+  </si>
+  <si>
+    <t>WI-Waccasassa</t>
+  </si>
+  <si>
+    <t>WC</t>
+  </si>
+  <si>
+    <t>WI-Withlacoochee</t>
+  </si>
+  <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>WI-Citrus</t>
   </si>
 </sst>
 </file>
@@ -562,8 +616,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2290EAFA-E702-4013-855B-8287C2917115}" name="Table1" displayName="Table1" ref="A1:D14" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:D14" xr:uid="{2290EAFA-E702-4013-855B-8287C2917115}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2290EAFA-E702-4013-855B-8287C2917115}" name="Table1" displayName="Table1" ref="A1:D20" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:D20" xr:uid="{2290EAFA-E702-4013-855B-8287C2917115}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{0F3EFAE7-C43F-43A4-98CD-33BD085FAA71}" name="Type"/>
     <tableColumn id="2" xr3:uid="{41903F13-457D-4BE8-83A4-BBEA9A0794AA}" name="Designation"/>
@@ -575,8 +629,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E2821D4A-29BF-4DC8-B339-8E2AA5FC96D3}" name="Table2" displayName="Table2" ref="A1:D7" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:D7" xr:uid="{E2821D4A-29BF-4DC8-B339-8E2AA5FC96D3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E2821D4A-29BF-4DC8-B339-8E2AA5FC96D3}" name="Table2" displayName="Table2" ref="A1:D10" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:D10" xr:uid="{E2821D4A-29BF-4DC8-B339-8E2AA5FC96D3}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{6698C1C8-6642-4681-845E-5BC43253DE59}" name="Site"/>
     <tableColumn id="2" xr3:uid="{284BB4AC-9EFF-40DB-ABEC-145F6F552E3E}" name="Section"/>
@@ -920,17 +974,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49AF02D2-80D6-4FBF-8F69-14799DFC26B6}">
   <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="210.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="210.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>26</v>
       </c>
@@ -947,7 +1001,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>30</v>
       </c>
@@ -964,7 +1018,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="5" t="s">
         <v>6</v>
@@ -979,7 +1033,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="5" t="s">
         <v>7</v>
@@ -994,7 +1048,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" t="s">
         <v>59</v>
@@ -1009,7 +1063,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>31</v>
       </c>
@@ -1026,7 +1080,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="5" t="s">
         <v>1</v>
@@ -1038,7 +1092,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="5" t="s">
         <v>2</v>
@@ -1050,7 +1104,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>32</v>
       </c>
@@ -1064,7 +1118,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="5" t="s">
         <v>25</v>
@@ -1076,7 +1130,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="5" t="s">
         <v>75</v>
@@ -1088,7 +1142,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="5" t="s">
         <v>20</v>
@@ -1100,7 +1154,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="5" t="s">
         <v>29</v>
@@ -1112,7 +1166,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>126</v>
       </c>
@@ -1126,7 +1180,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" t="s">
         <v>25</v>
@@ -1138,7 +1192,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" t="s">
         <v>75</v>
@@ -1150,7 +1204,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" t="s">
         <v>95</v>
@@ -1176,21 +1230,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A98269-D1F2-4AAA-B75F-45C7BEE80E81}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A15" sqref="A15:D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -1204,7 +1258,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1218,7 +1272,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1232,7 +1286,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1246,7 +1300,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1260,7 +1314,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1274,7 +1328,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1288,7 +1342,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -1302,7 +1356,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1316,7 +1370,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -1330,7 +1384,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -1344,7 +1398,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -1358,7 +1412,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -1372,7 +1426,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1383,6 +1437,90 @@
         <v>91</v>
       </c>
       <c r="D14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" t="s">
+        <v>132</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" t="s">
+        <v>134</v>
+      </c>
+      <c r="D17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" t="s">
+        <v>136</v>
+      </c>
+      <c r="D18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" t="s">
+        <v>138</v>
+      </c>
+      <c r="D19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" t="s">
+        <v>140</v>
+      </c>
+      <c r="D20" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1408,21 +1546,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404EDE7E-0283-496B-A219-853162C38F92}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A8" sqref="A8:D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1436,7 +1574,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -1450,7 +1588,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -1464,7 +1602,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>44</v>
       </c>
@@ -1478,7 +1616,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>90</v>
       </c>
@@ -1492,7 +1630,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>90</v>
       </c>
@@ -1506,7 +1644,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>90</v>
       </c>
@@ -1518,6 +1656,48 @@
       </c>
       <c r="D7" t="s">
         <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -1534,16 +1714,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" customWidth="1"/>
-    <col min="5" max="5" width="36.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -1560,7 +1740,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1577,7 +1757,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -1594,7 +1774,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1611,7 +1791,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -1628,7 +1808,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1645,7 +1825,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>71</v>
       </c>
@@ -1662,7 +1842,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>103</v>
       </c>
@@ -1691,17 +1871,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9A3A6A3-7FCA-49DF-B5CA-10FF90C109D0}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -1715,7 +1895,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1729,7 +1909,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1743,7 +1923,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1757,7 +1937,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1771,7 +1951,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1785,7 +1965,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -1799,7 +1979,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -1813,7 +1993,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1827,7 +2007,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1841,7 +2021,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1855,7 +2035,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1869,7 +2049,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1883,7 +2063,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>103</v>
       </c>
@@ -1897,7 +2077,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>103</v>
       </c>
@@ -1911,7 +2091,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>124</v>
       </c>
@@ -1925,7 +2105,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>124</v>
       </c>
@@ -1939,7 +2119,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>124</v>
       </c>
@@ -1953,7 +2133,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>124</v>
       </c>
@@ -1967,7 +2147,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>124</v>
       </c>
@@ -1981,7 +2161,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>124</v>
       </c>
@@ -1995,7 +2175,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>124</v>
       </c>
@@ -2009,7 +2189,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>124</v>
       </c>
@@ -2023,7 +2203,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>124</v>
       </c>
@@ -2037,7 +2217,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>124</v>
       </c>
@@ -2051,7 +2231,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>124</v>
       </c>
@@ -2065,7 +2245,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>124</v>
       </c>
@@ -2079,7 +2259,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>124</v>
       </c>
@@ -2093,7 +2273,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>124</v>
       </c>
@@ -2107,7 +2287,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>124</v>
       </c>
@@ -2121,7 +2301,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -2135,7 +2315,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -2162,9 +2342,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>

--- a/Reference files/Setup_data.xlsx
+++ b/Reference files/Setup_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erica.Williams\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erica.Williams\Documents\GitHub\HSM-and-mapping\Reference files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F678D397-0F54-4FD9-A8D5-88DB16D9D509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7050C05B-DC87-4E48-A547-E15453D2F7F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{ABA54846-BF8B-4CFF-808A-98E7C297F143}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{ABA54846-BF8B-4CFF-808A-98E7C297F143}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="5" r:id="rId1"/>
@@ -271,6 +271,9 @@
     <t>Column_name</t>
   </si>
   <si>
+    <t>OYSTERS</t>
+  </si>
+  <si>
     <t>SEAGRASS</t>
   </si>
   <si>
@@ -316,9 +319,6 @@
     <t>SS</t>
   </si>
   <si>
-    <t>Suwanne Sound</t>
-  </si>
-  <si>
     <t>SS-Central</t>
   </si>
   <si>
@@ -427,15 +427,15 @@
     <t>Pred_Value</t>
   </si>
   <si>
-    <t>OYSTER</t>
-  </si>
-  <si>
     <t>US</t>
   </si>
   <si>
     <t>Suwannee Sound South</t>
   </si>
   <si>
+    <t>Suwannee Sound</t>
+  </si>
+  <si>
     <t>UN</t>
   </si>
   <si>
@@ -451,37 +451,37 @@
     <t>WI-CI</t>
   </si>
   <si>
+    <t>WI-WC</t>
+  </si>
+  <si>
+    <t>WI-WA</t>
+  </si>
+  <si>
     <t>Withlacoochee-Citrus</t>
   </si>
   <si>
-    <t>WI-WC</t>
-  </si>
-  <si>
     <t>Withlacoochee-Waccasassa</t>
   </si>
   <si>
-    <t>WI-WA</t>
-  </si>
-  <si>
     <t>Withlacoochee-Withlacoochee</t>
   </si>
   <si>
+    <t>WI-Waccasassa</t>
+  </si>
+  <si>
+    <t>WI-Withlacoochee</t>
+  </si>
+  <si>
+    <t>WI-Citrus</t>
+  </si>
+  <si>
     <t>WA</t>
   </si>
   <si>
-    <t>WI-Waccasassa</t>
-  </si>
-  <si>
     <t>WC</t>
   </si>
   <si>
-    <t>WI-Withlacoochee</t>
-  </si>
-  <si>
     <t>CI</t>
-  </si>
-  <si>
-    <t>WI-Citrus</t>
   </si>
 </sst>
 </file>
@@ -1139,7 +1139,7 @@
         <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
@@ -1201,7 +1201,7 @@
         <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1233,7 +1233,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:D20"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1389,13 +1389,13 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1403,13 +1403,13 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1417,13 +1417,13 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1431,13 +1431,13 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C14" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1445,10 +1445,10 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" t="s">
         <v>129</v>
-      </c>
-      <c r="C15" t="s">
-        <v>130</v>
       </c>
       <c r="D15" t="s">
         <v>3</v>
@@ -1490,7 +1490,7 @@
         <v>135</v>
       </c>
       <c r="C18" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D18" t="s">
         <v>50</v>
@@ -1501,10 +1501,10 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C19" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D19" t="s">
         <v>50</v>
@@ -1515,7 +1515,7 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C20" t="s">
         <v>140</v>
@@ -1548,9 +1548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{404EDE7E-0283-496B-A219-853162C38F92}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:D10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1618,7 +1616,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B5" t="s">
         <v>46</v>
@@ -1632,7 +1630,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -1646,7 +1644,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -1663,13 +1661,13 @@
         <v>133</v>
       </c>
       <c r="B8" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1677,13 +1675,13 @@
         <v>133</v>
       </c>
       <c r="B9" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1691,13 +1689,13 @@
         <v>133</v>
       </c>
       <c r="B10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1712,7 +1710,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EEC5A8C-2EDB-451C-AE63-50DA71E8941F}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1748,7 +1748,7 @@
         <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1765,13 +1765,13 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1782,13 +1782,13 @@
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1799,13 +1799,13 @@
         <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1816,7 +1816,7 @@
         <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D6">
         <v>6</v>
@@ -1833,7 +1833,7 @@
         <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -1903,7 +1903,7 @@
         <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="D2" t="s">
         <v>96</v>
@@ -1917,7 +1917,7 @@
         <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="D3" t="s">
         <v>97</v>
@@ -1931,7 +1931,7 @@
         <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="D4" t="s">
         <v>98</v>
@@ -1945,7 +1945,7 @@
         <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
         <v>99</v>
@@ -1959,7 +1959,7 @@
         <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
         <v>100</v>
@@ -1973,7 +1973,7 @@
         <v>70</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
         <v>101</v>
@@ -1987,7 +1987,7 @@
         <v>70</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D8" t="s">
         <v>102</v>
@@ -2001,7 +2001,7 @@
         <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -2015,7 +2015,7 @@
         <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
@@ -2029,7 +2029,7 @@
         <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -2043,7 +2043,7 @@
         <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D12" t="s">
         <v>16</v>
@@ -2057,7 +2057,7 @@
         <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D13" t="s">
         <v>18</v>
@@ -2099,7 +2099,7 @@
         <v>72</v>
       </c>
       <c r="C16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D16" t="s">
         <v>109</v>
@@ -2113,7 +2113,7 @@
         <v>72</v>
       </c>
       <c r="C17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D17" t="s">
         <v>110</v>
@@ -2127,7 +2127,7 @@
         <v>72</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D18" t="s">
         <v>111</v>
@@ -2141,7 +2141,7 @@
         <v>72</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D19" t="s">
         <v>112</v>
@@ -2155,7 +2155,7 @@
         <v>72</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D20" t="s">
         <v>113</v>
@@ -2169,7 +2169,7 @@
         <v>72</v>
       </c>
       <c r="C21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D21" t="s">
         <v>114</v>
@@ -2183,7 +2183,7 @@
         <v>72</v>
       </c>
       <c r="C22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D22" t="s">
         <v>115</v>
@@ -2197,7 +2197,7 @@
         <v>72</v>
       </c>
       <c r="C23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D23" t="s">
         <v>116</v>
@@ -2211,7 +2211,7 @@
         <v>72</v>
       </c>
       <c r="C24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D24" t="s">
         <v>117</v>
@@ -2225,7 +2225,7 @@
         <v>72</v>
       </c>
       <c r="C25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" t="s">
         <v>123</v>
@@ -2239,7 +2239,7 @@
         <v>72</v>
       </c>
       <c r="C26" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" t="s">
         <v>119</v>
@@ -2253,7 +2253,7 @@
         <v>72</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D27" t="s">
         <v>120</v>
@@ -2267,7 +2267,7 @@
         <v>72</v>
       </c>
       <c r="C28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D28" t="s">
         <v>121</v>
@@ -2281,7 +2281,7 @@
         <v>72</v>
       </c>
       <c r="C29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D29" t="s">
         <v>122</v>
@@ -2295,7 +2295,7 @@
         <v>72</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D30" t="s">
         <v>118</v>

--- a/Reference files/Setup_data.xlsx
+++ b/Reference files/Setup_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erica.Williams\Documents\GitHub\HSM-and-mapping\Reference files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7050C05B-DC87-4E48-A547-E15453D2F7F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBDAFA3C-5D9A-476D-BA5C-FBB690356CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{ABA54846-BF8B-4CFF-808A-98E7C297F143}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="152">
   <si>
     <t>Site</t>
   </si>
@@ -214,12 +214,6 @@
     <t>SL-South</t>
   </si>
   <si>
-    <t>Oysters in Florida GSI layer. Source FWC</t>
-  </si>
-  <si>
-    <t>Description of data layer including source of data.</t>
-  </si>
-  <si>
     <t>Is_Used</t>
   </si>
   <si>
@@ -482,6 +476,27 @@
   </si>
   <si>
     <t>CI</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>User gathered</t>
+  </si>
+  <si>
+    <t>FDACS</t>
+  </si>
+  <si>
+    <t>FWC</t>
+  </si>
+  <si>
+    <t>Source of data</t>
+  </si>
+  <si>
+    <t>Description of data layer</t>
+  </si>
+  <si>
+    <t>Oysters in Florida GSI layer</t>
   </si>
 </sst>
 </file>
@@ -642,14 +657,15 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6FA0BAA3-47DA-49C8-91CB-0A2E7355A2B5}" name="Table3" displayName="Table3" ref="A1:E8" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:E8" xr:uid="{6FA0BAA3-47DA-49C8-91CB-0A2E7355A2B5}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6FA0BAA3-47DA-49C8-91CB-0A2E7355A2B5}" name="Table3" displayName="Table3" ref="A1:F8" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:F8" xr:uid="{6FA0BAA3-47DA-49C8-91CB-0A2E7355A2B5}"/>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{5519B2E3-398D-4910-B2B3-9C35C0C36B8E}" name="Parameter"/>
     <tableColumn id="2" xr3:uid="{89BFB1ED-5765-4484-8DD0-4EF9A48A6028}" name="Layer_name"/>
     <tableColumn id="5" xr3:uid="{3FC64101-BD91-46FF-93B8-B2B46BC9EF8F}" name="Column_name"/>
     <tableColumn id="3" xr3:uid="{D9807E9C-4BAF-484F-93F6-BF0E9DEB2EC4}" name="Priority"/>
     <tableColumn id="4" xr3:uid="{7C4466E1-8375-4529-8D01-8CEC01CDAA7D}" name="Description"/>
+    <tableColumn id="6" xr3:uid="{A9B94449-981F-4195-931A-A1184FAFA83E}" name="Source"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -972,7 +988,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49AF02D2-80D6-4FBF-8F69-14799DFC26B6}">
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:Z18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1051,13 +1067,13 @@
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Z5" t="s">
         <v>53</v>
@@ -1133,13 +1149,13 @@
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
@@ -1163,65 +1179,77 @@
         <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="5" t="s">
+        <v>145</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
+      <c r="A15" s="6" t="s">
+        <v>124</v>
+      </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>125</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A15:A18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1255,7 +1283,7 @@
         <v>7</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1347,10 +1375,10 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
@@ -1361,10 +1389,10 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
@@ -1375,10 +1403,10 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D10" t="s">
         <v>3</v>
@@ -1389,10 +1417,10 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D11" t="s">
         <v>3</v>
@@ -1403,10 +1431,10 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D12" t="s">
         <v>3</v>
@@ -1417,10 +1445,10 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D13" t="s">
         <v>3</v>
@@ -1431,10 +1459,10 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D14" t="s">
         <v>3</v>
@@ -1445,10 +1473,10 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D15" t="s">
         <v>3</v>
@@ -1459,10 +1487,10 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C16" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D16" t="s">
         <v>3</v>
@@ -1473,10 +1501,10 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D17" t="s">
         <v>50</v>
@@ -1487,10 +1515,10 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D18" t="s">
         <v>50</v>
@@ -1501,10 +1529,10 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D19" t="s">
         <v>50</v>
@@ -1515,10 +1543,10 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D20" t="s">
         <v>50</v>
@@ -1597,7 +1625,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1616,7 +1644,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s">
         <v>46</v>
@@ -1625,12 +1653,12 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -1639,12 +1667,12 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -1653,49 +1681,49 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1708,10 +1736,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EEC5A8C-2EDB-451C-AE63-50DA71E8941F}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1723,7 +1751,7 @@
     <col min="5" max="5" width="36.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -1731,7 +1759,7 @@
         <v>25</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>20</v>
@@ -1739,25 +1767,31 @@
       <c r="E1" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+      <c r="F2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -1765,16 +1799,19 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="F3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1782,81 +1819,96 @@
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="F4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="F5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D6">
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="F6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="F7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" t="s">
         <v>103</v>
-      </c>
-      <c r="B8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C8" t="s">
-        <v>105</v>
       </c>
       <c r="D8">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>106</v>
+        <v>104</v>
+      </c>
+      <c r="F8" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -1889,10 +1941,10 @@
         <v>25</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1900,13 +1952,13 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1914,13 +1966,13 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1928,13 +1980,13 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1942,13 +1994,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1956,13 +2008,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1970,13 +2022,13 @@
         <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1984,13 +2036,13 @@
         <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1998,10 +2050,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -2012,10 +2064,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
@@ -2026,10 +2078,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -2040,10 +2092,10 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D12" t="s">
         <v>16</v>
@@ -2054,10 +2106,10 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D13" t="s">
         <v>18</v>
@@ -2065,240 +2117,240 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" t="s">
         <v>103</v>
       </c>
-      <c r="B14" t="s">
-        <v>104</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>105</v>
-      </c>
-      <c r="D14" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" t="s">
         <v>103</v>
       </c>
-      <c r="B15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C15" t="s">
-        <v>105</v>
-      </c>
       <c r="D15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D23" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D24" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B26" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D26" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D27" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B28" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D28" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C29" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D29" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B30" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C30" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D30" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -2309,10 +2361,10 @@
         <v>22</v>
       </c>
       <c r="C31" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D31" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -2323,10 +2375,10 @@
         <v>23</v>
       </c>
       <c r="C32" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D32" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Reference files/Setup_data.xlsx
+++ b/Reference files/Setup_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erica.Williams\Documents\GitHub\HSM-and-mapping\Reference files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7050C05B-DC87-4E48-A547-E15453D2F7F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459F1688-0C68-410A-8607-2B25EE19C972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{ABA54846-BF8B-4CFF-808A-98E7C297F143}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{ABA54846-BF8B-4CFF-808A-98E7C297F143}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="5" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="Section_Order" sheetId="1" r:id="rId3"/>
     <sheet name="Parameter_Order" sheetId="4" r:id="rId4"/>
     <sheet name="Parameter_Levels" sheetId="6" r:id="rId5"/>
-    <sheet name="Testing" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="148">
   <si>
     <t>Site</t>
   </si>
@@ -100,9 +99,6 @@
     <t>Prohibited</t>
   </si>
   <si>
-    <t>Something isn't working.</t>
-  </si>
-  <si>
     <t>Priority</t>
   </si>
   <si>
@@ -482,6 +478,12 @@
   </si>
   <si>
     <t>CI</t>
+  </si>
+  <si>
+    <t>Optimal_flow</t>
+  </si>
+  <si>
+    <t>Outlier_flow</t>
   </si>
 </sst>
 </file>
@@ -974,246 +976,246 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49AF02D2-80D6-4FBF-8F69-14799DFC26B6}">
   <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="210.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="210.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="Z1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
         <v>33</v>
       </c>
-      <c r="D2" t="s">
-        <v>34</v>
-      </c>
       <c r="Z2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Z3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
       <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Z4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" t="s">
-        <v>60</v>
-      </c>
       <c r="Z5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
         <v>36</v>
       </c>
-      <c r="D6" t="s">
-        <v>37</v>
-      </c>
       <c r="Z6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
         <v>38</v>
       </c>
-      <c r="D7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
         <v>40</v>
       </c>
-      <c r="D8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="D9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
         <v>40</v>
       </c>
-      <c r="D12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1232,19 +1234,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A98269-D1F2-4AAA-B75F-45C7BEE80E81}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -1255,24 +1257,24 @@
         <v>7</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
         <v>44</v>
-      </c>
-      <c r="C2" t="s">
-        <v>45</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1283,10 +1285,10 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1297,10 +1299,10 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1311,10 +1313,10 @@
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1325,10 +1327,10 @@
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1339,189 +1341,189 @@
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1</v>
       </c>
       <c r="B13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" t="s">
         <v>87</v>
       </c>
-      <c r="C13" t="s">
-        <v>88</v>
-      </c>
       <c r="D13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>0</v>
       </c>
       <c r="B15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" t="s">
         <v>128</v>
-      </c>
-      <c r="C15" t="s">
-        <v>129</v>
       </c>
       <c r="D15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>0</v>
       </c>
       <c r="B16" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" t="s">
         <v>131</v>
-      </c>
-      <c r="C16" t="s">
-        <v>132</v>
       </c>
       <c r="D16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>0</v>
       </c>
       <c r="B17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" t="s">
         <v>133</v>
       </c>
-      <c r="C17" t="s">
-        <v>134</v>
-      </c>
       <c r="D17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D20" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1550,15 +1552,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1569,26 +1571,26 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -1597,12 +1599,12 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -1611,26 +1613,26 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -1639,12 +1641,12 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -1653,49 +1655,49 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -1714,149 +1716,149 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="36.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="C1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" t="s">
         <v>75</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" t="s">
-        <v>76</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D6">
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" t="s">
         <v>71</v>
       </c>
-      <c r="B7" t="s">
-        <v>72</v>
-      </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" t="s">
         <v>103</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>104</v>
-      </c>
-      <c r="C8" t="s">
-        <v>105</v>
       </c>
       <c r="D8">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1869,484 +1871,492 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9A3A6A3-7FCA-49DF-B5CA-10FF90C109D0}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="C1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
         <v>69</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C7" t="s">
         <v>76</v>
       </c>
-      <c r="D2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
         <v>69</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C8" t="s">
         <v>76</v>
       </c>
-      <c r="D3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" t="s">
         <v>103</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>104</v>
       </c>
-      <c r="C14" t="s">
-        <v>105</v>
-      </c>
       <c r="D14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>103</v>
-      </c>
-      <c r="B15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C15" t="s">
-        <v>105</v>
-      </c>
-      <c r="D15" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>123</v>
+      </c>
+      <c r="B16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>124</v>
-      </c>
-      <c r="B16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>123</v>
+      </c>
+      <c r="B17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>124</v>
-      </c>
-      <c r="B17" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>123</v>
+      </c>
+      <c r="B18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>124</v>
-      </c>
-      <c r="B18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>124</v>
-      </c>
-      <c r="B19" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>124</v>
-      </c>
-      <c r="B20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>123</v>
+      </c>
+      <c r="B21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>124</v>
-      </c>
-      <c r="B21" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D21" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>123</v>
+      </c>
+      <c r="B22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>124</v>
-      </c>
-      <c r="B22" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" t="s">
-        <v>79</v>
-      </c>
-      <c r="D22" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>124</v>
-      </c>
-      <c r="B23" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>123</v>
+      </c>
+      <c r="B24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>124</v>
-      </c>
-      <c r="B24" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" t="s">
-        <v>79</v>
-      </c>
-      <c r="D24" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>123</v>
+      </c>
+      <c r="B26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>123</v>
+      </c>
+      <c r="B27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>123</v>
+      </c>
+      <c r="B28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>123</v>
+      </c>
+      <c r="B29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>123</v>
+      </c>
+      <c r="B30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>124</v>
-      </c>
-      <c r="B25" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" t="s">
-        <v>79</v>
-      </c>
-      <c r="D25" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>124</v>
-      </c>
-      <c r="B26" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>124</v>
-      </c>
-      <c r="B27" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" t="s">
-        <v>79</v>
-      </c>
-      <c r="D27" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>124</v>
-      </c>
-      <c r="B28" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" t="s">
-        <v>79</v>
-      </c>
-      <c r="D28" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>124</v>
-      </c>
-      <c r="B29" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" t="s">
-        <v>79</v>
-      </c>
-      <c r="D29" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>124</v>
-      </c>
-      <c r="B30" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" t="s">
-        <v>79</v>
-      </c>
-      <c r="D30" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" t="s">
+        <v>126</v>
+      </c>
+      <c r="D31" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>22</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>22</v>
       </c>
-      <c r="C31" t="s">
-        <v>127</v>
-      </c>
-      <c r="D31" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32" t="s">
-        <v>23</v>
-      </c>
       <c r="C32" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D32" t="s">
-        <v>102</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D1058D-E616-411E-871D-16CD52DEFA8F}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>19</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>146</v>
+      </c>
+      <c r="B33" t="s">
+        <v>146</v>
+      </c>
+      <c r="C33" t="s">
+        <v>126</v>
+      </c>
+      <c r="D33" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>147</v>
+      </c>
+      <c r="B34" t="s">
+        <v>147</v>
+      </c>
+      <c r="C34" t="s">
+        <v>126</v>
+      </c>
+      <c r="D34" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/Reference files/Setup_data.xlsx
+++ b/Reference files/Setup_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erica.Williams\Documents\GitHub\HSM-and-mapping\Reference files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erica.Levine\Documents\GitHub\HSM-and-mapping\Reference files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459F1688-0C68-410A-8607-2B25EE19C972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F43C16-635A-4184-984E-FED53C83656D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{ABA54846-BF8B-4CFF-808A-98E7C297F143}"/>
+    <workbookView xWindow="5760" yWindow="1068" windowWidth="17280" windowHeight="8880" firstSheet="1" activeTab="4" xr2:uid="{ABA54846-BF8B-4CFF-808A-98E7C297F143}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="5" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="150">
   <si>
     <t>Site</t>
   </si>
@@ -484,6 +484,12 @@
   </si>
   <si>
     <t>Outlier_flow</t>
+  </si>
+  <si>
+    <t>Flow</t>
+  </si>
+  <si>
+    <t>Flow-salinity data</t>
   </si>
 </sst>
 </file>
@@ -644,8 +650,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6FA0BAA3-47DA-49C8-91CB-0A2E7355A2B5}" name="Table3" displayName="Table3" ref="A1:E8" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:E8" xr:uid="{6FA0BAA3-47DA-49C8-91CB-0A2E7355A2B5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6FA0BAA3-47DA-49C8-91CB-0A2E7355A2B5}" name="Table3" displayName="Table3" ref="A1:E9" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:E9" xr:uid="{6FA0BAA3-47DA-49C8-91CB-0A2E7355A2B5}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{5519B2E3-398D-4910-B2B3-9C35C0C36B8E}" name="Parameter"/>
     <tableColumn id="2" xr3:uid="{89BFB1ED-5765-4484-8DD0-4EF9A48A6028}" name="Layer_name"/>
@@ -1234,7 +1240,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A98269-D1F2-4AAA-B75F-45C7BEE80E81}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -1710,10 +1716,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EEC5A8C-2EDB-451C-AE63-50DA71E8941F}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1821,7 +1827,7 @@
         <v>77</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
         <v>73</v>
@@ -1855,10 +1861,27 @@
         <v>104</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
         <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1873,7 +1896,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9A3A6A3-7FCA-49DF-B5CA-10FF90C109D0}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2333,7 +2358,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B33" t="s">
         <v>146</v>
@@ -2347,7 +2372,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B34" t="s">
         <v>147</v>
